--- a/ressource/TestFonctionnel.xlsx
+++ b/ressource/TestFonctionnel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>TEST FONCTIONNEL</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Ne s'affiche pas sous forme de pop up</t>
+  </si>
+  <si>
+    <t>Correction</t>
   </si>
 </sst>
 </file>
@@ -176,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -210,11 +213,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -231,13 +260,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,17 +609,17 @@
     <col min="4" max="4" width="99.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -595,11 +629,14 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -609,11 +646,12 @@
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -623,9 +661,10 @@
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="14"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -635,19 +674,21 @@
       <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -657,11 +698,12 @@
       <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -671,11 +713,12 @@
       <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -685,11 +728,12 @@
       <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -699,11 +743,12 @@
       <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -713,9 +758,10 @@
       <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="14"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
@@ -725,11 +771,12 @@
       <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
@@ -739,19 +786,21 @@
       <c r="C15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="10"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
@@ -761,11 +810,12 @@
       <c r="C17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
@@ -775,11 +825,12 @@
       <c r="C18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
@@ -789,11 +840,12 @@
       <c r="C19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
@@ -803,11 +855,12 @@
       <c r="C20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
@@ -817,9 +870,10 @@
       <c r="C21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="14"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
@@ -829,61 +883,70 @@
       <c r="C22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="14"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="10"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="14"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="14"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="14"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="14"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ressource/TestFonctionnel.xlsx
+++ b/ressource/TestFonctionnel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="46">
   <si>
     <t>TEST FONCTIONNEL</t>
   </si>
@@ -57,33 +57,15 @@
     <t>Modification devoir par le bouton modifier</t>
   </si>
   <si>
-    <t>Pas de confirmation de modification</t>
-  </si>
-  <si>
     <t>Affichage erreur si modification par le bouton modifier avec tous les champs vide</t>
   </si>
   <si>
-    <t>changer la fenêtre d'erreur</t>
-  </si>
-  <si>
     <t>Affichage erreur si modification par le bouton modifier avec le champs nom vide</t>
   </si>
   <si>
     <t>Affichage erreur si modification par le bouton modifier avec le champs calendrier vide</t>
   </si>
   <si>
-    <t>Fermer la fenêtre de modification par le bouton quitter</t>
-  </si>
-  <si>
-    <t>Re ouvre une fenêtre de l'interface principale par-dessus l'ancienne</t>
-  </si>
-  <si>
-    <t>Ferme l'applicattion complète</t>
-  </si>
-  <si>
-    <t>Problème au niveau de la dimmension de fenêtre lorsque les nom des devoir sont long, voir capture feuille 2</t>
-  </si>
-  <si>
     <t>Affichage interface modification devoir par le clic sur devoir dans la liste</t>
   </si>
   <si>
@@ -123,9 +105,6 @@
     <t>Retour à l'interface principale depuis la fenêtre de modification par le bouton quitter</t>
   </si>
   <si>
-    <t>Retour à l'interface principale depuis la fenêtre de création après la création d'un devoir</t>
-  </si>
-  <si>
     <t>Fermeture de la pop up par la croix rouge</t>
   </si>
   <si>
@@ -138,10 +117,52 @@
     <t>CREATION RUBRIQUE</t>
   </si>
   <si>
-    <t>Ne s'affiche pas sous forme de pop up</t>
-  </si>
-  <si>
     <t>Correction</t>
+  </si>
+  <si>
+    <t>Affichage erreur si modification par le bouton modifier avec le champs rubriques vide</t>
+  </si>
+  <si>
+    <t>Fermer la fenêtre de modification par le bouton annuler</t>
+  </si>
+  <si>
+    <t>fenêtre d'erreur + fermeture de la pop up</t>
+  </si>
+  <si>
+    <t>fenêtre d'erreur et retour a l'interface principale</t>
+  </si>
+  <si>
+    <t>ferme l'app complete</t>
+  </si>
+  <si>
+    <t>ne suprimme pas</t>
+  </si>
+  <si>
+    <t>Affichage erreur si titre vide</t>
+  </si>
+  <si>
+    <t>Affichage erreur si critère vide</t>
+  </si>
+  <si>
+    <t>Affichage erreur si tout critère vide</t>
+  </si>
+  <si>
+    <t>Retour a la creation du devoir par le bouton annuler</t>
+  </si>
+  <si>
+    <t>ne ferme pas la pop up</t>
+  </si>
+  <si>
+    <t>Retour a la creation du devoir par le bouton créer</t>
+  </si>
+  <si>
+    <t>Création d'un devoir</t>
+  </si>
+  <si>
+    <t>Ne marche pas si il y a des rubriques</t>
+  </si>
+  <si>
+    <t>Pas de confirmation de modification + fermeture de la pop up + duplication du devoir</t>
   </si>
 </sst>
 </file>
@@ -595,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +654,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -644,16 +665,14 @@
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>18</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D5" s="14"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
@@ -666,22 +685,20 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>37</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D7" s="14"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -696,16 +713,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>7</v>
@@ -714,13 +731,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>6</v>
@@ -729,153 +746,151 @@
         <v>7</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>16</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D14" s="14"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>17</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D15" s="14"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="12"/>
+      <c r="A16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="4"/>
+      <c r="A17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>7</v>
@@ -887,66 +902,151 @@
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="14"/>
+      <c r="A23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D24" s="14"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="14"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="4"/>
+      <c r="A27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="14"/>
+      <c r="A28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D29" s="14"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D30" s="14"/>
       <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ressource/TestFonctionnel.xlsx
+++ b/ressource/TestFonctionnel.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxime\Documents\GitHub\scrumweek\ressource\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="47">
   <si>
     <t>TEST FONCTIONNEL</t>
   </si>
@@ -163,6 +158,9 @@
   </si>
   <si>
     <t>Pas de confirmation de modification + fermeture de la pop up + duplication du devoir</t>
+  </si>
+  <si>
+    <t>Modifié a 15h (03/07/15)</t>
   </si>
 </sst>
 </file>
@@ -608,7 +606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -618,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,6 +626,7 @@
     <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1"/>
     <col min="4" max="4" width="99.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1025,15 +1024,17 @@
         <v>40</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">

--- a/ressource/TestFonctionnel.xlsx
+++ b/ressource/TestFonctionnel.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxime\Documents\GitHub\scrumweek\ressource\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="48">
   <si>
     <t>TEST FONCTIONNEL</t>
   </si>
@@ -161,6 +166,9 @@
   </si>
   <si>
     <t>Modifié a 15h (03/07/15)</t>
+  </si>
+  <si>
+    <t>Résolu</t>
   </si>
 </sst>
 </file>
@@ -606,7 +614,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -617,7 +625,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,12 +981,14 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">

--- a/ressource/TestFonctionnel.xlsx
+++ b/ressource/TestFonctionnel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="48">
   <si>
     <t>TEST FONCTIONNEL</t>
   </si>
@@ -162,13 +162,13 @@
     <t>Ne marche pas si il y a des rubriques</t>
   </si>
   <si>
-    <t>Pas de confirmation de modification + fermeture de la pop up + duplication du devoir</t>
-  </si>
-  <si>
     <t>Modifié a 15h (03/07/15)</t>
   </si>
   <si>
     <t>Résolu</t>
+  </si>
+  <si>
+    <t>duplication du devoir</t>
   </si>
 </sst>
 </file>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,9 +723,11 @@
         <v>7</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -735,7 +737,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>33</v>
@@ -916,12 +918,14 @@
         <v>7</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -954,7 +958,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>7</v>
@@ -987,7 +991,7 @@
         <v>35</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1043,7 +1047,7 @@
         <v>41</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">

--- a/ressource/TestFonctionnel.xlsx
+++ b/ressource/TestFonctionnel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="57">
   <si>
     <t>TEST FONCTIONNEL</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Affichage erreur si création par le bouton créer avec le champs rubriques vide</t>
   </si>
   <si>
-    <t>Retour à l'interface principale depuis la fenêtre de création par le bouton quitter</t>
-  </si>
-  <si>
     <t>Retour à l'interface principale depuis la fenêtre de modification par le bouton quitter</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>fenêtre d'erreur + fermeture de la pop up</t>
   </si>
   <si>
-    <t>fenêtre d'erreur et retour a l'interface principale</t>
-  </si>
-  <si>
     <t>ferme l'app complete</t>
   </si>
   <si>
@@ -144,9 +138,6 @@
     <t>Affichage erreur si critère vide</t>
   </si>
   <si>
-    <t>Affichage erreur si tout critère vide</t>
-  </si>
-  <si>
     <t>Retour a la creation du devoir par le bouton annuler</t>
   </si>
   <si>
@@ -162,13 +153,49 @@
     <t>Ne marche pas si il y a des rubriques</t>
   </si>
   <si>
-    <t>Modifié a 15h (03/07/15)</t>
-  </si>
-  <si>
     <t>Résolu</t>
   </si>
   <si>
     <t>duplication du devoir</t>
+  </si>
+  <si>
+    <t>Pas de message d'erreur</t>
+  </si>
+  <si>
+    <t>Retour à l'interface principale depuis la fenêtre de création par le bouton Annuler</t>
+  </si>
+  <si>
+    <t>Maximum 5 rubriques</t>
+  </si>
+  <si>
+    <t>Création de plus de 5 rubriques + création du devoir</t>
+  </si>
+  <si>
+    <t>Maximum 5 critères</t>
+  </si>
+  <si>
+    <t>CREATION GROUPE</t>
+  </si>
+  <si>
+    <t>Affichage erreur si élève vide</t>
+  </si>
+  <si>
+    <t>Ajouter des groupes</t>
+  </si>
+  <si>
+    <t>Ne recupère pas la liste des groupes donc pas  d'affchage des groupes</t>
+  </si>
+  <si>
+    <t>Suppprimer des groupes</t>
+  </si>
+  <si>
+    <t>Supprimer des groupes</t>
+  </si>
+  <si>
+    <t>Ajouter critère</t>
+  </si>
+  <si>
+    <t>Supprimer critère</t>
   </si>
 </sst>
 </file>
@@ -622,15 +649,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="87.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1"/>
     <col min="4" max="4" width="99.42578125" bestFit="1" customWidth="1"/>
@@ -661,7 +688,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -723,10 +750,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -740,16 +767,18 @@
         <v>7</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>7</v>
@@ -757,7 +786,9 @@
       <c r="D11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -770,16 +801,18 @@
         <v>7</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>7</v>
@@ -787,11 +820,13 @@
       <c r="D13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>7</v>
@@ -803,8 +838,8 @@
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>25</v>
+      <c r="A15" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>7</v>
@@ -816,8 +851,8 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>26</v>
+      <c r="A16" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>7</v>
@@ -829,47 +864,47 @@
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="12"/>
+      <c r="A17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>18</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D18" s="14"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>19</v>
+      <c r="A19" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>21</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D19" s="14"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>7</v>
@@ -877,59 +912,55 @@
       <c r="C20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="D20" s="14"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="4"/>
+      <c r="A21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>7</v>
@@ -937,66 +968,76 @@
       <c r="C24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="4"/>
+      <c r="D24" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>27</v>
+      <c r="A25" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>28</v>
+      <c r="A26" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>36</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D26" s="14"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="12"/>
+      <c r="A27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>7</v>
@@ -1008,8 +1049,8 @@
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>38</v>
+      <c r="A30" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>7</v>
@@ -1021,47 +1062,258 @@
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="B42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="14"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="14"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ressource/TestFonctionnel.xlsx
+++ b/ressource/TestFonctionnel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="59">
   <si>
     <t>TEST FONCTIONNEL</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>Supprimer critère</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage des tableaux par les boutons associés </t>
+  </si>
+  <si>
+    <t>Affichage tableau en fonction choix du devoir dans la liste</t>
   </si>
 </sst>
 </file>
@@ -219,7 +225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,8 +238,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -293,11 +305,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -326,6 +367,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,34 +781,30 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>7</v>
@@ -767,7 +813,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>42</v>
@@ -775,7 +821,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>7</v>
@@ -784,7 +830,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>42</v>
@@ -792,7 +838,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>7</v>
@@ -801,7 +847,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>42</v>
@@ -809,7 +855,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>7</v>
@@ -818,7 +864,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>42</v>
@@ -826,20 +872,24 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>7</v>
@@ -852,7 +902,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>7</v>
@@ -865,7 +915,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>7</v>
@@ -877,8 +927,8 @@
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>24</v>
+      <c r="A18" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>7</v>
@@ -890,8 +940,8 @@
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>26</v>
+      <c r="A19" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>7</v>
@@ -903,8 +953,8 @@
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>25</v>
+      <c r="A20" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>7</v>
@@ -916,34 +966,30 @@
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>7</v>
@@ -952,7 +998,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>42</v>
@@ -960,16 +1006,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>42</v>
@@ -977,16 +1023,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>42</v>
@@ -994,20 +1040,24 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>7</v>
@@ -1015,29 +1065,29 @@
       <c r="C27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>7</v>
@@ -1050,7 +1100,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>7</v>
@@ -1063,24 +1113,20 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>7</v>
@@ -1089,7 +1135,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>42</v>
@@ -1097,50 +1143,50 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="14" t="s">
+      <c r="B34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="E34" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>7</v>
@@ -1148,12 +1194,16 @@
       <c r="C36" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="4"/>
+      <c r="D36" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>7</v>
@@ -1166,7 +1216,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>7</v>
@@ -1179,7 +1229,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>7</v>
@@ -1192,7 +1242,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>7</v>
@@ -1205,7 +1255,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>7</v>
@@ -1213,68 +1263,68 @@
       <c r="C41" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="B43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="12"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>7</v>
@@ -1287,33 +1337,90 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="B49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="17"/>
+    </row>
+    <row r="51" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="19"/>
+    </row>
+    <row r="53" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
